--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>TestId</t>
   </si>
@@ -118,13 +118,25 @@
     <t>TC-003</t>
   </si>
   <si>
+    <t xml:space="preserve">Obtener + StatusCode KO</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
     <t xml:space="preserve">Invalid endpoint</t>
   </si>
   <si>
     <t>/invalid-endpoint</t>
   </si>
   <si>
-    <t>TC-004</t>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid StatusCode</t>
+  </si>
+  <si>
+    <t>TC-006</t>
   </si>
   <si>
     <t xml:space="preserve">Skipped test</t>
@@ -133,7 +145,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>TC-005</t>
+    <t>TC-007</t>
   </si>
   <si>
     <t xml:space="preserve">Basic Auth</t>
@@ -158,7 +170,7 @@
 </t>
   </si>
   <si>
-    <t>TC-006</t>
+    <t>TC-008</t>
   </si>
   <si>
     <t xml:space="preserve">Token Auth</t>
@@ -176,7 +188,7 @@
 }</t>
   </si>
   <si>
-    <t>TC-007</t>
+    <t>TC-009</t>
   </si>
   <si>
     <t xml:space="preserve">Ejemplo de POST</t>
@@ -203,7 +215,7 @@
 }</t>
   </si>
   <si>
-    <t>TC-008</t>
+    <t>TC-010</t>
   </si>
   <si>
     <t xml:space="preserve">Ejemplo de POST Error</t>
@@ -992,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1011,13 +1023,13 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>18</v>
@@ -1026,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1045,10 +1057,10 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -1057,139 +1069,201 @@
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6">
         <v>200</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="9"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="9"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="K8" s="10"/>
       <c r="L8" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="9"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <v>200</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="6">
         <v>201</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="6">
+        <v>201</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="11"/>
@@ -1217,14 +1291,14 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="11"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="11"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11"/>
@@ -1347,10 +1421,10 @@
       <c r="A62" s="11"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="1"/>
+      <c r="A63" s="11"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="1"/>
+      <c r="A64" s="11"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="1"/>
@@ -1360,6 +1434,12 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="1"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1367,10 +1447,12 @@
     <hyperlink r:id="rId1" ref="E3"/>
     <hyperlink r:id="rId1" ref="E4"/>
     <hyperlink r:id="rId1" ref="E5"/>
-    <hyperlink r:id="rId2" ref="E6"/>
-    <hyperlink r:id="rId2" ref="E7"/>
-    <hyperlink r:id="rId1" ref="E8"/>
-    <hyperlink r:id="rId1" ref="E9"/>
+    <hyperlink r:id="rId1" ref="E6"/>
+    <hyperlink r:id="rId1" ref="E7"/>
+    <hyperlink r:id="rId2" ref="E8"/>
+    <hyperlink r:id="rId2" ref="E9"/>
+    <hyperlink r:id="rId1" ref="E10"/>
+    <hyperlink r:id="rId1" ref="E11"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
